--- a/data/outputs/management_elsevier/100.xlsx
+++ b/data/outputs/management_elsevier/100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS55"/>
+  <dimension ref="A1:BU55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84947043058</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1772</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1162,6 +1178,12 @@
           <t>2-s2.0-84947017233</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2435</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1386,6 +1408,12 @@
         <is>
           <t>2-s2.0-84946563201</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>890</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1598,6 +1626,12 @@
           <t>2-s2.0-84947023690</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1628</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1823,6 +1857,12 @@
           <t>2-s2.0-84947033618</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1306</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2042,6 +2082,12 @@
           <t>2-s2.0-84947028932</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1389</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2267,6 +2313,12 @@
           <t>2-s2.0-84946542058</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1208</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2486,6 +2538,12 @@
           <t>2-s2.0-84947037368</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1949</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2709,6 +2767,12 @@
           <t>2-s2.0-84946562800</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1261</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2932,6 +2996,12 @@
           <t>2-s2.0-84946574034</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2944</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3161,6 +3231,12 @@
           <t>2-s2.0-84941199180</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1798</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3382,6 +3458,12 @@
           <t>2-s2.0-84941201730</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>6077</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3607,6 +3689,12 @@
           <t>2-s2.0-84941261339</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1290</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3832,6 +3920,12 @@
           <t>2-s2.0-84941260529</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1832</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4053,6 +4147,12 @@
           <t>2-s2.0-84941260296</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2211</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4276,6 +4376,12 @@
           <t>2-s2.0-84941260386</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>619</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4503,6 +4609,12 @@
           <t>2-s2.0-84955717204</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1243</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4728,6 +4840,12 @@
           <t>2-s2.0-84955663799</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2891</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4945,6 +5063,12 @@
           <t>2-s2.0-84955655669</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1022</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5172,6 +5296,12 @@
           <t>2-s2.0-84955750881</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>826</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5396,6 +5526,12 @@
         <is>
           <t>2-s2.0-84955715847</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>2496</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -5610,6 +5746,12 @@
           <t>2-s2.0-84955728813</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>5156</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5835,6 +5977,12 @@
           <t>2-s2.0-84953213455</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1599</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6060,6 +6208,12 @@
           <t>2-s2.0-84955638319</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1393</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6281,6 +6435,12 @@
           <t>2-s2.0-84955501239</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1206</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6498,6 +6658,12 @@
           <t>2-s2.0-84955725516</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>8513</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6718,6 +6884,12 @@
         <is>
           <t>2-s2.0-84928925213</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>2192</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -6930,6 +7102,12 @@
           <t>2-s2.0-84928923740</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>2530</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7155,6 +7333,12 @@
           <t>2-s2.0-84928924399</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1171</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7378,6 +7562,12 @@
           <t>2-s2.0-84928928715</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>910</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7603,6 +7793,12 @@
           <t>2-s2.0-84928896562</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1451</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7824,6 +8020,12 @@
           <t>2-s2.0-84928928379</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1433</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8041,6 +8243,12 @@
           <t>2-s2.0-84928890090</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2955</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8261,6 +8469,12 @@
         <is>
           <t>2-s2.0-84928927855</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>2242</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -8461,6 +8675,12 @@
           <t>2-s2.0-84928924051</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>711</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8685,6 +8905,12 @@
         <is>
           <t>2-s2.0-84928925937</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -8897,6 +9123,12 @@
           <t>2-s2.0-84928901827</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1149</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9125,6 +9357,12 @@
         <is>
           <t>2-s2.0-84924043249</t>
         </is>
+      </c>
+      <c r="BT39" t="n">
+        <v>2669</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -9339,6 +9577,12 @@
           <t>2-s2.0-84924059556</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>4865</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9560,6 +9804,12 @@
           <t>2-s2.0-84924139408</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1287</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9779,6 +10029,12 @@
           <t>2-s2.0-84924102704</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3108</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9998,6 +10254,12 @@
           <t>2-s2.0-84924084957</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2613</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10227,6 +10489,12 @@
           <t>2-s2.0-84924527137</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>953</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10456,6 +10724,12 @@
           <t>2-s2.0-84924202306</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1741</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10681,6 +10955,12 @@
           <t>2-s2.0-84918821215</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1530</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10908,6 +11188,12 @@
           <t>2-s2.0-84918548656</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1744</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11127,6 +11413,12 @@
           <t>2-s2.0-84918562220</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2531</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11348,6 +11640,12 @@
           <t>2-s2.0-84918589503</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1756</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11577,6 +11875,12 @@
           <t>2-s2.0-84918505087</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2062</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11792,6 +12096,12 @@
           <t>2-s2.0-84918768031</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>3569</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12022,6 +12332,12 @@
         <is>
           <t>2-s2.0-84918528211</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>1097</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -12226,6 +12542,12 @@
           <t>2-s2.0-84918832967</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>500</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12459,6 +12781,12 @@
           <t>2-s2.0-84918502417</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>7057</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12680,6 +13008,12 @@
           <t>2-s2.0-84918562674</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>37242</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
